--- a/data/trans_orig/Q5409-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F1F3D2C-4188-44E1-857A-7342C8A9A827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{748A98FE-4DC6-4D8E-9A59-D3B7029DB904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6759F7D7-7CC9-4CCE-8A90-9E5E39F499FC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{371AB088-620B-4316-9EFD-9A8498DCD992}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -104,121 +104,121 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>2,3%</t>
+    <t>2,33%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>8,31%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>5,89%</t>
+    <t>5,59%</t>
   </si>
   <si>
     <t>11,03%</t>
@@ -227,46 +227,46 @@
     <t>10,07%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>90,27%</t>
   </si>
   <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>83,65%</t>
   </si>
   <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
   </si>
   <si>
     <t>86,49%</t>
   </si>
   <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
@@ -275,31 +275,34 @@
     <t>1,5%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>2,17%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>9,98%</t>
@@ -308,124 +311,121 @@
     <t>7,8%</t>
   </si>
   <si>
-    <t>12,61%</t>
+    <t>12,53%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
   </si>
   <si>
     <t>91,56%</t>
   </si>
   <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
     <t>89,13%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
   </si>
 </sst>
 </file>
@@ -837,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D147AF-38BF-4B0F-A0FF-36FE619CD59D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A74D8B-AF3A-4876-9E8E-174700598470}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14CDCB5-88B6-491B-AAA6-6B6567B7D0B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3219E151-EBB7-4280-B447-C2B9487BD5B6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3749,7 +3749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC718A5D-58FD-42B3-902B-BB86663ED63B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69FB0B9-AA9B-455A-87BA-D1F2503B8397}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4798,7 +4798,7 @@
         <v>34474</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>80</v>
@@ -4819,7 +4819,7 @@
         <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4834,13 @@
         <v>41045</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -4849,13 +4849,13 @@
         <v>77655</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>110</v>
@@ -4864,13 +4864,13 @@
         <v>118700</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4885,13 @@
         <v>541440</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>563</v>
@@ -4900,13 +4900,13 @@
         <v>665802</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>1135</v>
@@ -4915,13 +4915,13 @@
         <v>1207242</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,7 +5004,7 @@
         <v>34474</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>80</v>
@@ -5025,7 +5025,7 @@
         <v>83</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5040,13 @@
         <v>41045</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>65</v>
@@ -5055,13 +5055,13 @@
         <v>77655</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>110</v>
@@ -5070,13 +5070,13 @@
         <v>118700</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5091,13 @@
         <v>541440</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H30" s="7">
         <v>563</v>
@@ -5106,13 +5106,13 @@
         <v>665802</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M30" s="7">
         <v>1135</v>
@@ -5121,13 +5121,13 @@
         <v>1207242</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,7 +5205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7353C5-7332-4280-A06B-A28DAC8FF3EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515C38D1-4637-4E28-859F-1831812F670C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5222,7 +5222,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6239,13 +6239,13 @@
         <v>18557</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>78</v>
@@ -6254,13 +6254,13 @@
         <v>45327</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>109</v>
@@ -6269,13 +6269,13 @@
         <v>63884</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,13 +6290,13 @@
         <v>56434</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>195</v>
@@ -6305,13 +6305,13 @@
         <v>109605</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>279</v>
@@ -6320,13 +6320,13 @@
         <v>166038</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,10 +6341,10 @@
         <v>621238</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>122</v>
@@ -6445,13 +6445,13 @@
         <v>18557</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H28" s="7">
         <v>78</v>
@@ -6460,13 +6460,13 @@
         <v>45327</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="M28" s="7">
         <v>109</v>
@@ -6475,13 +6475,13 @@
         <v>63884</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6496,13 @@
         <v>56434</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H29" s="7">
         <v>195</v>
@@ -6511,13 +6511,13 @@
         <v>109605</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M29" s="7">
         <v>279</v>
@@ -6526,13 +6526,13 @@
         <v>166038</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,10 +6547,10 @@
         <v>621238</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>122</v>

--- a/data/trans_orig/Q5409-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{748A98FE-4DC6-4D8E-9A59-D3B7029DB904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE97C8D7-6ECA-477A-9C5E-556A24EB9937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{371AB088-620B-4316-9EFD-9A8498DCD992}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{333A5A96-5FF6-4454-B95F-FABFF71F67E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,310 +101,313 @@
     <t>1,13%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>4,22%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
   </si>
   <si>
     <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
   </si>
   <si>
     <t>91,01%</t>
@@ -837,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A74D8B-AF3A-4876-9E8E-174700598470}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E534E9F-527A-4144-AA5C-ADFFFB900E61}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2293,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3219E151-EBB7-4280-B447-C2B9487BD5B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E17261-7D7E-4FD0-B55D-39D6CF4DB060}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3360,10 +3363,10 @@
         <v>55</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,13 +3381,13 @@
         <v>45087</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -3393,13 +3396,13 @@
         <v>74828</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -3408,13 +3411,13 @@
         <v>119915</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3432,13 @@
         <v>505210</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H26" s="7">
         <v>582</v>
@@ -3444,13 +3447,13 @@
         <v>621484</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M26" s="7">
         <v>1041</v>
@@ -3459,13 +3462,13 @@
         <v>1126694</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,10 +3569,10 @@
         <v>55</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3587,13 @@
         <v>45087</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H29" s="7">
         <v>70</v>
@@ -3599,13 +3602,13 @@
         <v>74828</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>106</v>
@@ -3614,13 +3617,13 @@
         <v>119915</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3638,13 @@
         <v>505210</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>582</v>
@@ -3650,13 +3653,13 @@
         <v>621484</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M30" s="7">
         <v>1041</v>
@@ -3665,13 +3668,13 @@
         <v>1126694</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,7 +3752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69FB0B9-AA9B-455A-87BA-D1F2503B8397}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FBB152-FB80-43C9-80A7-249393EE5126}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3766,7 +3769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4783,13 +4786,13 @@
         <v>8843</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -4798,13 +4801,13 @@
         <v>34474</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -4813,13 +4816,13 @@
         <v>43317</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4837,13 @@
         <v>41045</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -4849,13 +4852,13 @@
         <v>77655</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>110</v>
@@ -4864,13 +4867,13 @@
         <v>118700</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4888,13 @@
         <v>541440</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>563</v>
@@ -4900,13 +4903,13 @@
         <v>665802</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>1135</v>
@@ -4915,13 +4918,13 @@
         <v>1207242</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +4992,13 @@
         <v>8843</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -5004,13 +5007,13 @@
         <v>34474</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>37</v>
@@ -5019,13 +5022,13 @@
         <v>43317</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5043,13 @@
         <v>41045</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>65</v>
@@ -5055,13 +5058,13 @@
         <v>77655</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>110</v>
@@ -5070,13 +5073,13 @@
         <v>118700</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5094,13 @@
         <v>541440</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H30" s="7">
         <v>563</v>
@@ -5106,13 +5109,13 @@
         <v>665802</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M30" s="7">
         <v>1135</v>
@@ -5121,13 +5124,13 @@
         <v>1207242</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,7 +5208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515C38D1-4637-4E28-859F-1831812F670C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA3AABC-717C-4051-A22B-CD6C0DAEEAA2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5222,7 +5225,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6239,13 +6242,13 @@
         <v>18557</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>78</v>
@@ -6254,13 +6257,13 @@
         <v>45327</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>109</v>
@@ -6269,13 +6272,13 @@
         <v>63884</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,7 +6293,7 @@
         <v>56434</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>113</v>
@@ -6344,10 +6347,10 @@
         <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>1432</v>
@@ -6356,13 +6359,13 @@
         <v>869976</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>2343</v>
@@ -6371,13 +6374,13 @@
         <v>1491214</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6448,13 @@
         <v>18557</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H28" s="7">
         <v>78</v>
@@ -6460,13 +6463,13 @@
         <v>45327</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M28" s="7">
         <v>109</v>
@@ -6475,13 +6478,13 @@
         <v>63884</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,7 +6499,7 @@
         <v>56434</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>113</v>
@@ -6550,10 +6553,10 @@
         <v>121</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H30" s="7">
         <v>1432</v>
@@ -6562,13 +6565,13 @@
         <v>869976</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>2343</v>
@@ -6577,13 +6580,13 @@
         <v>1491214</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5409-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE97C8D7-6ECA-477A-9C5E-556A24EB9937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FF2DB6A-B37B-4FEA-AE2E-391E48C16CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{333A5A96-5FF6-4454-B95F-FABFF71F67E0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2072B3D4-BB9A-4641-A547-4362660F5DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="129">
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,166 +101,172 @@
     <t>1,13%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,56%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
+    <t>10,95%</t>
   </si>
   <si>
     <t>90,27%</t>
   </si>
   <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>83,65%</t>
   </si>
   <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
   </si>
   <si>
     <t>86,49%</t>
   </si>
   <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
   </si>
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
@@ -269,46 +275,40 @@
     <t>1,5%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
+    <t>2,17%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
   </si>
   <si>
     <t>8,67%</t>
@@ -317,34 +317,34 @@
     <t>7,26%</t>
   </si>
   <si>
-    <t>10,33%</t>
+    <t>10,23%</t>
   </si>
   <si>
     <t>91,56%</t>
   </si>
   <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
   </si>
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
@@ -353,82 +353,79 @@
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>3,06%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
   </si>
   <si>
     <t>10,69%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>84,88%</t>
   </si>
   <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
   </si>
 </sst>
 </file>
@@ -840,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E534E9F-527A-4144-AA5C-ADFFFB900E61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F36946-36E3-480A-80DF-EA46848318A9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2296,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E17261-7D7E-4FD0-B55D-39D6CF4DB060}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515EA3E6-8CDD-4F46-856D-C5C127092C0B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3363,10 +3360,10 @@
         <v>55</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3378,13 @@
         <v>45087</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -3396,13 +3393,13 @@
         <v>74828</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -3411,13 +3408,13 @@
         <v>119915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3429,13 @@
         <v>505210</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H26" s="7">
         <v>582</v>
@@ -3447,13 +3444,13 @@
         <v>621484</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M26" s="7">
         <v>1041</v>
@@ -3462,13 +3459,13 @@
         <v>1126694</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,10 +3566,10 @@
         <v>55</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3584,13 @@
         <v>45087</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H29" s="7">
         <v>70</v>
@@ -3602,13 +3599,13 @@
         <v>74828</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>106</v>
@@ -3617,13 +3614,13 @@
         <v>119915</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3635,13 @@
         <v>505210</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>582</v>
@@ -3653,13 +3650,13 @@
         <v>621484</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M30" s="7">
         <v>1041</v>
@@ -3668,13 +3665,13 @@
         <v>1126694</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FBB152-FB80-43C9-80A7-249393EE5126}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66B3C41-E274-4C28-BE38-A9FCEE885557}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3769,7 +3766,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4786,13 +4783,13 @@
         <v>8843</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -4801,13 +4798,13 @@
         <v>34474</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -4816,13 +4813,13 @@
         <v>43317</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4989,13 @@
         <v>8843</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -5007,13 +5004,13 @@
         <v>34474</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>37</v>
@@ -5022,13 +5019,13 @@
         <v>43317</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,7 +5205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA3AABC-717C-4051-A22B-CD6C0DAEEAA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F18E0ED-680D-4BC8-9B71-5B23EAE9C2DF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6263,7 +6260,7 @@
         <v>107</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="M24" s="7">
         <v>109</v>
@@ -6272,13 +6269,13 @@
         <v>63884</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,13 +6290,13 @@
         <v>56434</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>195</v>
@@ -6308,13 +6305,13 @@
         <v>109605</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>279</v>
@@ -6323,13 +6320,13 @@
         <v>166038</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6341,13 @@
         <v>621238</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>1432</v>
@@ -6359,13 +6356,13 @@
         <v>869976</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>2343</v>
@@ -6374,13 +6371,13 @@
         <v>1491214</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,7 +6466,7 @@
         <v>107</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="M28" s="7">
         <v>109</v>
@@ -6478,13 +6475,13 @@
         <v>63884</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6496,13 @@
         <v>56434</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H29" s="7">
         <v>195</v>
@@ -6514,13 +6511,13 @@
         <v>109605</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M29" s="7">
         <v>279</v>
@@ -6529,13 +6526,13 @@
         <v>166038</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6547,13 @@
         <v>621238</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H30" s="7">
         <v>1432</v>
@@ -6565,13 +6562,13 @@
         <v>869976</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>2343</v>
@@ -6580,13 +6577,13 @@
         <v>1491214</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5409-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FF2DB6A-B37B-4FEA-AE2E-391E48C16CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D38E4036-55AB-4458-9BC4-0D61BCFDF12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2072B3D4-BB9A-4641-A547-4362660F5DF8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D036610E-17D9-4455-9A29-C1894A7F126D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="330">
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>A menudo</t>
@@ -83,19 +83,184 @@
     <t>No</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
   </si>
   <si>
     <t>1,13%</t>
@@ -179,15 +344,168 @@
     <t>93,51%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
     <t>1,67%</t>
   </si>
   <si>
@@ -272,6 +590,156 @@
     <t>Población según si se le escapa la orina (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
     <t>1,5%</t>
   </si>
   <si>
@@ -290,15 +758,9 @@
     <t>3,16%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
     <t>9,12%</t>
   </si>
   <si>
@@ -350,82 +812,223 @@
     <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
   </si>
   <si>
-    <t>2,67%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
 </sst>
 </file>
@@ -837,8 +1440,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F36946-36E3-480A-80DF-EA46848318A9}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB26946-A6CF-46FA-8791-EC02884464C4}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1865,10 +2468,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>5692</v>
+        <v>1758</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -1880,10 +2483,10 @@
         <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>21556</v>
+        <v>6108</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>22</v>
@@ -1895,10 +2498,10 @@
         <v>24</v>
       </c>
       <c r="M24" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="N24" s="7">
-        <v>27249</v>
+        <v>7866</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>25</v>
@@ -1916,10 +2519,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>27753</v>
+        <v>6147</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>28</v>
@@ -1931,10 +2534,10 @@
         <v>30</v>
       </c>
       <c r="H25" s="7">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>40255</v>
+        <v>7231</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>31</v>
@@ -1946,19 +2549,19 @@
         <v>33</v>
       </c>
       <c r="M25" s="7">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="N25" s="7">
-        <v>68008</v>
+        <v>13377</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,49 +2570,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>486</v>
+        <v>294</v>
       </c>
       <c r="D26" s="7">
-        <v>469020</v>
+        <v>284678</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>357</v>
+      </c>
+      <c r="I26" s="7">
+        <v>329595</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="7">
-        <v>605</v>
-      </c>
-      <c r="I26" s="7">
-        <v>615031</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>651</v>
+      </c>
+      <c r="N26" s="7">
+        <v>614274</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M26" s="7">
-        <v>1091</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1084051</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,102 +2621,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>5692</v>
+        <v>3934</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I28" s="7">
-        <v>21556</v>
+        <v>15448</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="M28" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N28" s="7">
-        <v>27249</v>
+        <v>19382</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,49 +2725,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D29" s="7">
-        <v>27753</v>
+        <v>21607</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="7">
         <v>29</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="7">
-        <v>37</v>
-      </c>
       <c r="I29" s="7">
-        <v>40255</v>
+        <v>33024</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="M29" s="7">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N29" s="7">
-        <v>68008</v>
+        <v>54631</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,49 +2776,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>486</v>
+        <v>192</v>
       </c>
       <c r="D30" s="7">
-        <v>469020</v>
+        <v>184342</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H30" s="7">
-        <v>605</v>
+        <v>248</v>
       </c>
       <c r="I30" s="7">
-        <v>615031</v>
+        <v>285435</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="M30" s="7">
-        <v>1091</v>
+        <v>440</v>
       </c>
       <c r="N30" s="7">
-        <v>1084051</v>
+        <v>469777</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,63 +2827,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5692</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="7">
+        <v>19</v>
+      </c>
+      <c r="I32" s="7">
+        <v>21556</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="7">
+        <v>25</v>
+      </c>
+      <c r="N32" s="7">
+        <v>27249</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>31</v>
+      </c>
+      <c r="D33" s="7">
+        <v>27753</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="7">
+        <v>37</v>
+      </c>
+      <c r="I33" s="7">
+        <v>40255</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" s="7">
+        <v>68</v>
+      </c>
+      <c r="N33" s="7">
+        <v>68008</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>486</v>
+      </c>
+      <c r="D34" s="7">
+        <v>469020</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="7">
+        <v>605</v>
+      </c>
+      <c r="I34" s="7">
+        <v>615031</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1091</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1084051</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>523</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>502466</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="7">
         <v>661</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>676842</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="7">
         <v>1184</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1179308</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2293,8 +3103,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515EA3E6-8CDD-4F46-856D-C5C127092C0B}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7689D237-1FDC-45F5-8421-81310F20998B}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2310,7 +3120,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3321,49 +4131,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4086</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="7">
         <v>9</v>
       </c>
-      <c r="D24" s="7">
-        <v>9340</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="7">
-        <v>42</v>
-      </c>
       <c r="I24" s="7">
-        <v>46663</v>
+        <v>9116</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="M24" s="7">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="N24" s="7">
-        <v>56003</v>
+        <v>13202</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,49 +4182,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>45087</v>
+        <v>9345</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I25" s="7">
-        <v>74828</v>
+        <v>23282</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="N25" s="7">
-        <v>119915</v>
+        <v>32627</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,49 +4233,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>459</v>
+        <v>270</v>
       </c>
       <c r="D26" s="7">
-        <v>505210</v>
+        <v>296355</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
+        <v>312</v>
+      </c>
+      <c r="I26" s="7">
+        <v>321598</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M26" s="7">
         <v>582</v>
       </c>
-      <c r="I26" s="7">
-        <v>621484</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1041</v>
-      </c>
       <c r="N26" s="7">
-        <v>1126694</v>
+        <v>617953</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,102 +4284,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>9340</v>
+        <v>5254</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I28" s="7">
-        <v>46663</v>
+        <v>37547</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="M28" s="7">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N28" s="7">
-        <v>56003</v>
+        <v>42801</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,49 +4388,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D29" s="7">
-        <v>45087</v>
+        <v>35742</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="H29" s="7">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="I29" s="7">
-        <v>74828</v>
+        <v>51546</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="N29" s="7">
-        <v>119915</v>
+        <v>87288</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,49 +4439,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>189</v>
+      </c>
+      <c r="D30" s="7">
+        <v>208855</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="7">
+        <v>270</v>
+      </c>
+      <c r="I30" s="7">
+        <v>299886</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M30" s="7">
         <v>459</v>
       </c>
-      <c r="D30" s="7">
-        <v>505210</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="7">
-        <v>582</v>
-      </c>
-      <c r="I30" s="7">
-        <v>621484</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M30" s="7">
-        <v>1041</v>
-      </c>
       <c r="N30" s="7">
-        <v>1126694</v>
+        <v>508741</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,63 +4490,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7">
+        <v>9340</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="7">
+        <v>42</v>
+      </c>
+      <c r="I32" s="7">
+        <v>46663</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M32" s="7">
+        <v>51</v>
+      </c>
+      <c r="N32" s="7">
+        <v>56003</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>36</v>
+      </c>
+      <c r="D33" s="7">
+        <v>45087</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="7">
+        <v>70</v>
+      </c>
+      <c r="I33" s="7">
+        <v>74828</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M33" s="7">
+        <v>106</v>
+      </c>
+      <c r="N33" s="7">
+        <v>119915</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>459</v>
+      </c>
+      <c r="D34" s="7">
+        <v>505210</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="7">
+        <v>582</v>
+      </c>
+      <c r="I34" s="7">
+        <v>621484</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1041</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1126694</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>504</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>559637</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="7">
         <v>694</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>742975</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="7">
         <v>1198</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1302612</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3749,8 +4766,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66B3C41-E274-4C28-BE38-A9FCEE885557}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF515FC5-6858-47D4-801A-84BD45BD4321}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3766,7 +4783,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4777,49 +5794,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2896</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H24" s="7">
+        <v>7</v>
+      </c>
+      <c r="I24" s="7">
+        <v>7400</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" s="7">
         <v>10</v>
       </c>
-      <c r="D24" s="7">
-        <v>8843</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="7">
-        <v>27</v>
-      </c>
-      <c r="I24" s="7">
-        <v>34474</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M24" s="7">
-        <v>37</v>
-      </c>
       <c r="N24" s="7">
-        <v>43317</v>
+        <v>10296</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,49 +5845,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>41045</v>
+        <v>8887</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="H25" s="7">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I25" s="7">
-        <v>77655</v>
+        <v>27646</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="M25" s="7">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="N25" s="7">
-        <v>118700</v>
+        <v>36533</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,49 +5896,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>572</v>
+        <v>314</v>
       </c>
       <c r="D26" s="7">
-        <v>541440</v>
+        <v>322548</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="H26" s="7">
-        <v>563</v>
+        <v>321</v>
       </c>
       <c r="I26" s="7">
-        <v>665802</v>
+        <v>342715</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="M26" s="7">
-        <v>1135</v>
+        <v>635</v>
       </c>
       <c r="N26" s="7">
-        <v>1207242</v>
+        <v>665263</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,102 +5947,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D28" s="7">
-        <v>8843</v>
+        <v>5948</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
+        <v>20</v>
+      </c>
+      <c r="I28" s="7">
+        <v>27074</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M28" s="7">
         <v>27</v>
       </c>
-      <c r="I28" s="7">
-        <v>34474</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M28" s="7">
-        <v>37</v>
-      </c>
       <c r="N28" s="7">
-        <v>43317</v>
+        <v>33022</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,49 +6051,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D29" s="7">
-        <v>41045</v>
+        <v>32158</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="H29" s="7">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I29" s="7">
-        <v>77655</v>
+        <v>50009</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="M29" s="7">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="N29" s="7">
-        <v>118700</v>
+        <v>82167</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,49 +6102,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>572</v>
+        <v>258</v>
       </c>
       <c r="D30" s="7">
-        <v>541440</v>
+        <v>218892</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="H30" s="7">
-        <v>563</v>
+        <v>242</v>
       </c>
       <c r="I30" s="7">
-        <v>665802</v>
+        <v>323086</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="M30" s="7">
-        <v>1135</v>
+        <v>500</v>
       </c>
       <c r="N30" s="7">
-        <v>1207242</v>
+        <v>541979</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,63 +6153,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>10</v>
+      </c>
+      <c r="D32" s="7">
+        <v>8843</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H32" s="7">
+        <v>27</v>
+      </c>
+      <c r="I32" s="7">
+        <v>34474</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" s="7">
+        <v>37</v>
+      </c>
+      <c r="N32" s="7">
+        <v>43317</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>45</v>
+      </c>
+      <c r="D33" s="7">
+        <v>41045</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H33" s="7">
+        <v>65</v>
+      </c>
+      <c r="I33" s="7">
+        <v>77655</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M33" s="7">
+        <v>110</v>
+      </c>
+      <c r="N33" s="7">
+        <v>118700</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>572</v>
+      </c>
+      <c r="D34" s="7">
+        <v>541440</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H34" s="7">
+        <v>563</v>
+      </c>
+      <c r="I34" s="7">
+        <v>665802</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1135</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1207242</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>627</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>591328</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="7">
         <v>655</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>777931</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="7">
         <v>1282</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1369259</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5205,8 +6429,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F18E0ED-680D-4BC8-9B71-5B23EAE9C2DF}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8A9C92-B5B6-49CF-8D65-279C49AE347A}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5222,7 +6446,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6233,49 +7457,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>18557</v>
+        <v>4023</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="H24" s="7">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>45327</v>
+        <v>4106</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>34</v>
+        <v>262</v>
       </c>
       <c r="M24" s="7">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>63884</v>
+        <v>8129</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>108</v>
+        <v>263</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,49 +7508,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D25" s="7">
-        <v>56434</v>
+        <v>23724</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>266</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>267</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="H25" s="7">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="I25" s="7">
-        <v>109605</v>
+        <v>24300</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>269</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>270</v>
       </c>
       <c r="M25" s="7">
-        <v>279</v>
+        <v>87</v>
       </c>
       <c r="N25" s="7">
-        <v>166038</v>
+        <v>48023</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,49 +7559,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>911</v>
+        <v>525</v>
       </c>
       <c r="D26" s="7">
-        <v>621238</v>
+        <v>340418</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>273</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>275</v>
       </c>
       <c r="H26" s="7">
-        <v>1432</v>
+        <v>767</v>
       </c>
       <c r="I26" s="7">
-        <v>869976</v>
+        <v>578409</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>123</v>
+        <v>276</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>278</v>
       </c>
       <c r="M26" s="7">
-        <v>2343</v>
+        <v>1292</v>
       </c>
       <c r="N26" s="7">
-        <v>1491214</v>
+        <v>918827</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>279</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,102 +7610,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1026</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>696228</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
-        <v>1705</v>
+        <v>824</v>
       </c>
       <c r="I27" s="7">
-        <v>1024908</v>
+        <v>606815</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>2731</v>
+        <v>1394</v>
       </c>
       <c r="N27" s="7">
-        <v>1721136</v>
+        <v>974980</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D28" s="7">
-        <v>18557</v>
+        <v>12842</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>103</v>
+        <v>282</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>104</v>
+        <v>283</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="H28" s="7">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I28" s="7">
-        <v>45327</v>
+        <v>34913</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>34</v>
+        <v>285</v>
       </c>
       <c r="M28" s="7">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="N28" s="7">
-        <v>63884</v>
+        <v>47755</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>108</v>
+        <v>286</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,49 +7714,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D29" s="7">
-        <v>56434</v>
+        <v>28397</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>289</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>290</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>291</v>
       </c>
       <c r="H29" s="7">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="I29" s="7">
-        <v>109605</v>
+        <v>73571</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>294</v>
       </c>
       <c r="M29" s="7">
-        <v>279</v>
+        <v>192</v>
       </c>
       <c r="N29" s="7">
-        <v>166038</v>
+        <v>101968</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>295</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>296</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,49 +7765,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>911</v>
+        <v>386</v>
       </c>
       <c r="D30" s="7">
-        <v>621238</v>
+        <v>240169</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>298</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>121</v>
+        <v>299</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>122</v>
+        <v>300</v>
       </c>
       <c r="H30" s="7">
-        <v>1432</v>
+        <v>665</v>
       </c>
       <c r="I30" s="7">
-        <v>869976</v>
+        <v>317347</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>123</v>
+        <v>301</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="M30" s="7">
-        <v>2343</v>
+        <v>1051</v>
       </c>
       <c r="N30" s="7">
-        <v>1491214</v>
+        <v>557516</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>126</v>
+        <v>304</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>127</v>
+        <v>305</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>128</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6592,63 +7816,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>456</v>
+      </c>
+      <c r="D31" s="7">
+        <v>281408</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="7">
+        <v>881</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707239</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>31</v>
+      </c>
+      <c r="D32" s="7">
+        <v>16865</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H32" s="7">
+        <v>78</v>
+      </c>
+      <c r="I32" s="7">
+        <v>39019</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M32" s="7">
+        <v>109</v>
+      </c>
+      <c r="N32" s="7">
+        <v>55884</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>84</v>
+      </c>
+      <c r="D33" s="7">
+        <v>52120</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H33" s="7">
+        <v>195</v>
+      </c>
+      <c r="I33" s="7">
+        <v>97871</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M33" s="7">
+        <v>279</v>
+      </c>
+      <c r="N33" s="7">
+        <v>149991</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>911</v>
+      </c>
+      <c r="D34" s="7">
+        <v>580587</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1432</v>
+      </c>
+      <c r="I34" s="7">
+        <v>895756</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2343</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1476344</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1026</v>
       </c>
-      <c r="D31" s="7">
-        <v>696228</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>649573</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="7">
         <v>1705</v>
       </c>
-      <c r="I31" s="7">
-        <v>1024908</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>1032646</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="7">
         <v>2731</v>
       </c>
-      <c r="N31" s="7">
-        <v>1721136</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="N35" s="7">
+        <v>1682219</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
